--- a/复盘记录/2016-2-15.xlsx
+++ b/复盘记录/2016-2-15.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzhiyi/wzy-quant/周记/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzhiyi/wzy-quant/复盘记录/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="26020" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="26020" windowHeight="16740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交割单" sheetId="1" r:id="rId1"/>
     <sheet name=" 轨道" sheetId="6" r:id="rId2"/>
+    <sheet name="轨道战役" sheetId="8" r:id="rId3"/>
+    <sheet name=" 路线图" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="39">
   <si>
     <t>成交数量</t>
     <rPh sb="0" eb="1">
@@ -200,18 +202,29 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>盈亏率</t>
+    <rPh sb="0" eb="1">
+      <t>ying kui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +281,14 @@
       <color theme="5"/>
       <name val="DengXian"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -386,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -420,13 +441,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,12 +465,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -779,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2789,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1:BY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,123 +2843,123 @@
     <col min="66" max="66" width="10.83203125" style="5"/>
     <col min="70" max="70" width="10.83203125" style="7"/>
     <col min="74" max="74" width="10.83203125" style="5"/>
-    <col min="77" max="77" width="10.83203125" style="7"/>
+    <col min="77" max="77" width="12.1640625" style="7" customWidth="1"/>
     <col min="80" max="80" width="10.83203125" style="5"/>
     <col min="84" max="84" width="10.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="28" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="25" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="25" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="25" t="s">
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="25" t="s">
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="25" t="str">
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="27" t="str">
         <f>"复星医药"</f>
         <v>复星医药</v>
       </c>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="25" t="str">
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="27" t="str">
         <f>"安居宝"</f>
         <v>安居宝</v>
       </c>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26"/>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="25" t="str">
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="27" t="str">
         <f>"慈星股份"</f>
         <v>慈星股份</v>
       </c>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="27"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="26"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -3790,7 +3822,13 @@
         <f t="shared" ref="BC5:BC6" si="4">BC4+BA5</f>
         <v>600</v>
       </c>
-      <c r="BY5" s="22"/>
+      <c r="BX5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY5" s="33">
+        <f>BW4/(-BW3)-1</f>
+        <v>0.37783092644676208</v>
+      </c>
       <c r="CF5" s="22"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
@@ -4037,10 +4075,10 @@
       </c>
     </row>
     <row r="13" spans="1:84" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="23">
         <f>SUM(12:12)</f>
         <v>-18829.800000000007</v>
@@ -4066,83 +4104,83 @@
     </row>
     <row r="14" spans="1:84" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="25" t="str">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27" t="str">
         <f>"东阿阿胶"</f>
         <v>东阿阿胶</v>
       </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="25" t="s">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="25" t="str">
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27" t="str">
         <f>"康恩贝"</f>
         <v>康恩贝</v>
       </c>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="25" t="str">
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="27" t="str">
         <f>"和邦生物"</f>
         <v>和邦生物</v>
       </c>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="25" t="str">
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="27" t="str">
         <f>"福瑞股份"</f>
         <v>福瑞股份</v>
       </c>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="25" t="str">
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="27" t="str">
         <f>"博腾股份"</f>
         <v>博腾股份</v>
       </c>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="27"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="26"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -4721,13 +4759,10 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="BL1:BR1"/>
+    <mergeCell ref="BS1:BY1"/>
+    <mergeCell ref="BZ1:CF1"/>
     <mergeCell ref="AJ15:AP15"/>
     <mergeCell ref="AQ15:AW15"/>
     <mergeCell ref="AX15:BD15"/>
@@ -4738,12 +4773,883 @@
     <mergeCell ref="AJ1:AP1"/>
     <mergeCell ref="AQ1:AW1"/>
     <mergeCell ref="AX1:BD1"/>
-    <mergeCell ref="BE1:BK1"/>
-    <mergeCell ref="BL1:BR1"/>
-    <mergeCell ref="BS1:BY1"/>
-    <mergeCell ref="BZ1:CF1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="str">
+        <f>"安居宝"</f>
+        <v>安居宝</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="39">
+        <v>20151225</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-18364.93</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3</f>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="39">
+        <v>20160121</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="13">
+        <v>26.22</v>
+      </c>
+      <c r="K3" s="6">
+        <v>800</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-20987.33</v>
+      </c>
+      <c r="M3" s="6">
+        <f>K3</f>
+        <v>800</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="39" t="str">
+        <f>"20160201"</f>
+        <v>20160201</v>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f t="shared" ref="P3:U4" si="0">"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-11406.16</v>
+      </c>
+      <c r="T3" s="6">
+        <f>R3</f>
+        <v>1000</v>
+      </c>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
+        <v>20151228</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-36019.440000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F3+D4</f>
+        <v>3000</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="39">
+        <v>20160125</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13">
+        <v>25.65</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-800</v>
+      </c>
+      <c r="L4" s="6">
+        <v>20488.400000000001</v>
+      </c>
+      <c r="M4" s="6">
+        <f>M3+K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="40">
+        <f>SUM(L3:L4)</f>
+        <v>-498.93000000000029</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:U4" si="1">"20160204"</f>
+        <v>20160204</v>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>15.74</v>
+      </c>
+      <c r="R4" s="6">
+        <v>-1000</v>
+      </c>
+      <c r="S4" s="6">
+        <v>15715.76</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0</v>
+      </c>
+      <c r="U4" s="41">
+        <f>SUM(S3:S4)</f>
+        <v>4309.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
+        <v>20151230</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>500</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-8840</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F11" si="2">F4+D5</f>
+        <v>3500</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="39" t="str">
+        <f>"20160129"</f>
+        <v>20160129</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f t="shared" ref="I5:N6" si="3">"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="J5" s="13">
+        <v>24.83</v>
+      </c>
+      <c r="K5" s="6">
+        <v>600</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-14906.04</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M6" si="4">M4+K5</f>
+        <v>600</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>20151231</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-19524.54</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>4600</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="39" t="str">
+        <f t="shared" ref="H6:N6" si="5">"20160204"</f>
+        <v>20160204</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="J6" s="13">
+        <v>29.32</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-600</v>
+      </c>
+      <c r="L6" s="6">
+        <v>17564.91</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="41">
+        <f>SUM(L5:L6)</f>
+        <v>2658.869999999999</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
+        <v>20160115</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-500</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7237.75</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>4100</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
+        <v>20160118</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-1200</v>
+      </c>
+      <c r="E8" s="6">
+        <v>16534.5</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
+        <v>20160118</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <v>13.78</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1200</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16510.53</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
+        <v>20160118</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-800</v>
+      </c>
+      <c r="E10" s="6">
+        <v>11182.75</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
+        <v>20160118</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14.69</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-900</v>
+      </c>
+      <c r="E11" s="6">
+        <v>13200.64</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="40">
+        <f>SUM(E3:E11)</f>
+        <v>-18082.740000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.83203125" style="35"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="35"/>
+    <col min="9" max="9" width="12.83203125" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="34">
+        <v>42417</v>
+      </c>
+      <c r="B1">
+        <v>2850</v>
+      </c>
+      <c r="E1" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H1" s="36">
+        <v>42370</v>
+      </c>
+      <c r="I1" s="37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2950</v>
+      </c>
+      <c r="C2" s="35">
+        <f>B2/B1-1</f>
+        <v>3.5087719298245723E-2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="5">
+        <f>E1*(1+D2)</f>
+        <v>210000</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="36">
+        <v>42522</v>
+      </c>
+      <c r="I2" s="37">
+        <f>(1+G2)*I1</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3050</v>
+      </c>
+      <c r="C3" s="35">
+        <f t="shared" ref="C3:C4" si="0">B3/B2-1</f>
+        <v>3.3898305084745672E-2</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E5" si="1">E2*(1+D3)</f>
+        <v>222600</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="36">
+        <v>42675</v>
+      </c>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I25" si="2">(1+G3)*I2</f>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>3150</v>
+      </c>
+      <c r="C4" s="35">
+        <f t="shared" si="0"/>
+        <v>3.2786885245901676E-2</v>
+      </c>
+      <c r="D4" s="35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>237069</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="36">
+        <v>42826</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="2"/>
+        <v>345600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>42480</v>
+      </c>
+      <c r="B5">
+        <v>3200</v>
+      </c>
+      <c r="C5" s="35">
+        <f>B5/B4-1</f>
+        <v>1.5873015873015817E-2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>241810.38</v>
+      </c>
+      <c r="F5" s="35">
+        <f>E5/E1-1</f>
+        <v>0.20905189999999996</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>42979</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="2"/>
+        <v>414720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="36">
+        <v>43132</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="2"/>
+        <v>497664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="36">
+        <v>43282</v>
+      </c>
+      <c r="I7" s="37">
+        <f>(1+G7)*I6</f>
+        <v>597196.79999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>43435</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="2"/>
+        <v>716636.15999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="36">
+        <v>43586</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="2"/>
+        <v>859963.39199999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="36">
+        <v>43739</v>
+      </c>
+      <c r="I10" s="38">
+        <f t="shared" si="2"/>
+        <v>1031956.0703999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="36">
+        <v>43891</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="2"/>
+        <v>1238347.2844799997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>44044</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="2"/>
+        <v>1486016.7413759995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="36">
+        <v>44197</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="2"/>
+        <v>1783220.0896511993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="36">
+        <v>44348</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="2"/>
+        <v>2139864.107581439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>44501</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" si="2"/>
+        <v>2567836.9290977265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>44652</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="2"/>
+        <v>3081404.3149172715</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="36">
+        <v>44805</v>
+      </c>
+      <c r="I17" s="37">
+        <f t="shared" si="2"/>
+        <v>3697685.1779007255</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>44958</v>
+      </c>
+      <c r="I18" s="37">
+        <f t="shared" si="2"/>
+        <v>4437222.2134808702</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="36">
+        <v>45108</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="2"/>
+        <v>5324666.6561770439</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="36">
+        <v>45261</v>
+      </c>
+      <c r="I20" s="37">
+        <f t="shared" si="2"/>
+        <v>6389599.9874124527</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="36">
+        <v>45413</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" si="2"/>
+        <v>7667519.9848949425</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="36">
+        <v>45566</v>
+      </c>
+      <c r="I22" s="37">
+        <f t="shared" si="2"/>
+        <v>9201023.9818739314</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G23" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="36">
+        <v>45717</v>
+      </c>
+      <c r="I23" s="38">
+        <f t="shared" si="2"/>
+        <v>11041228.778248718</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G24" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="36">
+        <v>45870</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" si="2"/>
+        <v>13249474.533898462</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="36">
+        <v>46023</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="2"/>
+        <v>15899369.440678153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/复盘记录/2016-2-15.xlsx
+++ b/复盘记录/2016-2-15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="26020" windowHeight="16740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="26020" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交割单" sheetId="1" r:id="rId1"/>
@@ -441,19 +441,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,17 +470,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,6 +824,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -854,7 +855,7 @@
       <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -886,7 +887,7 @@
       <c r="I2">
         <v>-18364.93</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <f>-I2</f>
         <v>18364.93</v>
       </c>
@@ -919,7 +920,7 @@
       <c r="I3">
         <v>-36019.440000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <f>J2-I3</f>
         <v>54384.37</v>
       </c>
@@ -952,7 +953,7 @@
       <c r="I4">
         <v>-16879.11</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J57" si="0">J3-I4</f>
         <v>71263.48000000001</v>
       </c>
@@ -985,7 +986,7 @@
       <c r="I5">
         <v>-8840</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>80103.48000000001</v>
       </c>
@@ -1018,7 +1019,7 @@
       <c r="I6">
         <v>-20803.23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>100906.71</v>
       </c>
@@ -1051,7 +1052,7 @@
       <c r="I7">
         <v>-19524.54</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>120431.25</v>
       </c>
@@ -1084,7 +1085,7 @@
       <c r="I8">
         <v>1865.13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>118566.12</v>
       </c>
@@ -1117,7 +1118,7 @@
       <c r="I9">
         <v>11142.81</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>107423.31</v>
       </c>
@@ -1150,7 +1151,7 @@
       <c r="I10">
         <v>-11053.97</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>118477.28</v>
       </c>
@@ -1183,7 +1184,7 @@
       <c r="I11">
         <v>10504.8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>107972.48</v>
       </c>
@@ -1216,7 +1217,7 @@
       <c r="I12">
         <v>-3577</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>111549.48</v>
       </c>
@@ -1249,7 +1250,7 @@
       <c r="I13">
         <v>-5055.1000000000004</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>116604.58</v>
       </c>
@@ -1282,7 +1283,7 @@
       <c r="I14">
         <v>7237.75</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>109366.83</v>
       </c>
@@ -1315,7 +1316,7 @@
       <c r="I15">
         <v>-4905.1000000000004</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>114271.93000000001</v>
       </c>
@@ -1348,7 +1349,7 @@
       <c r="I16">
         <v>16534.5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>97737.430000000008</v>
       </c>
@@ -1381,7 +1382,7 @@
       <c r="I17">
         <v>16510.53</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>81226.900000000009</v>
       </c>
@@ -1414,7 +1415,7 @@
       <c r="I18">
         <v>11182.75</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>70044.150000000009</v>
       </c>
@@ -1447,7 +1448,7 @@
       <c r="I19">
         <v>4909.9799999999996</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>65134.170000000013</v>
       </c>
@@ -1480,7 +1481,7 @@
       <c r="I20">
         <v>5409.47</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>59724.700000000012</v>
       </c>
@@ -1513,7 +1514,7 @@
       <c r="I21">
         <v>-14787.98</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>74512.680000000008</v>
       </c>
@@ -1546,7 +1547,7 @@
       <c r="I22">
         <v>13200.64</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>61312.040000000008</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="I23">
         <v>14879.05</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>46432.990000000005</v>
       </c>
@@ -1612,7 +1613,7 @@
       <c r="I24">
         <v>-30756.6</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>77189.59</v>
       </c>
@@ -1645,7 +1646,7 @@
       <c r="I25">
         <v>-43628.55</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>120818.14</v>
       </c>
@@ -1678,7 +1679,7 @@
       <c r="I26">
         <v>30209.4</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>90608.739999999991</v>
       </c>
@@ -1711,7 +1712,7 @@
       <c r="I27">
         <v>-29842.11</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>120450.84999999999</v>
       </c>
@@ -1744,7 +1745,7 @@
       <c r="I28">
         <v>30916.32</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>89534.53</v>
       </c>
@@ -1777,7 +1778,7 @@
       <c r="I29">
         <v>12885.12</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>76649.41</v>
       </c>
@@ -1810,7 +1811,7 @@
       <c r="I30">
         <v>-20987.33</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>97636.74</v>
       </c>
@@ -1843,7 +1844,7 @@
       <c r="I31">
         <v>-19830.7</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>117467.44</v>
       </c>
@@ -1876,7 +1877,7 @@
       <c r="I32">
         <v>20488.400000000001</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>96979.040000000008</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="I33">
         <v>-19954.77</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>116933.81000000001</v>
       </c>
@@ -1942,7 +1943,7 @@
       <c r="I34">
         <v>16622.37</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <f t="shared" si="0"/>
         <v>100311.44000000002</v>
       </c>
@@ -1975,7 +1976,7 @@
       <c r="I35">
         <v>25251.05</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5">
         <f>J34-I35</f>
         <v>75060.390000000014</v>
       </c>
@@ -2008,7 +2009,7 @@
       <c r="I36">
         <v>17013.759999999998</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="5">
         <f t="shared" si="0"/>
         <v>58046.630000000019</v>
       </c>
@@ -2046,7 +2047,7 @@
       <c r="I37">
         <v>-14906.04</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="5">
         <f t="shared" si="0"/>
         <v>72952.670000000013</v>
       </c>
@@ -2084,7 +2085,7 @@
       <c r="I38">
         <v>-8981</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5">
         <f t="shared" si="0"/>
         <v>81933.670000000013</v>
       </c>
@@ -2122,7 +2123,7 @@
       <c r="I39">
         <v>-3603.07</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="5">
         <f t="shared" si="0"/>
         <v>85536.74000000002</v>
       </c>
@@ -2160,7 +2161,7 @@
       <c r="I40">
         <v>-2822.06</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="5">
         <f t="shared" si="0"/>
         <v>88358.800000000017</v>
       </c>
@@ -2198,7 +2199,7 @@
       <c r="I41">
         <v>-11406.16</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="5">
         <f t="shared" si="0"/>
         <v>99764.960000000021</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="I42">
         <v>-5255.11</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="5">
         <f t="shared" si="0"/>
         <v>105020.07000000002</v>
       </c>
@@ -2274,7 +2275,7 @@
       <c r="I43">
         <v>-8837</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="5">
         <f t="shared" si="0"/>
         <v>113857.07000000002</v>
       </c>
@@ -2312,7 +2313,7 @@
       <c r="I44">
         <v>3589.33</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="5">
         <f t="shared" si="0"/>
         <v>110267.74000000002</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="I45">
         <v>-10550.69</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="5">
         <f t="shared" si="0"/>
         <v>120818.43000000002</v>
       </c>
@@ -2388,7 +2389,7 @@
       <c r="I46">
         <v>15715.76</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="5">
         <f t="shared" si="0"/>
         <v>105102.67000000003</v>
       </c>
@@ -2426,7 +2427,7 @@
       <c r="I47">
         <v>-6464</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="5">
         <f t="shared" si="0"/>
         <v>111566.67000000003</v>
       </c>
@@ -2464,7 +2465,7 @@
       <c r="I48">
         <v>17564.91</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="5">
         <f t="shared" si="0"/>
         <v>94001.760000000024</v>
       </c>
@@ -2502,7 +2503,7 @@
       <c r="I49">
         <v>-22187.98</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="5">
         <f t="shared" si="0"/>
         <v>116189.74000000002</v>
       </c>
@@ -2540,7 +2541,7 @@
       <c r="I50">
         <v>9186.7999999999993</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="5">
         <f t="shared" si="0"/>
         <v>107002.94000000002</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="I51">
         <v>-6625</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="5">
         <f t="shared" si="0"/>
         <v>113627.94000000002</v>
       </c>
@@ -2616,7 +2617,7 @@
       <c r="I52">
         <v>-8830</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>122457.94000000002</v>
       </c>
@@ -2654,7 +2655,7 @@
       <c r="I53">
         <v>-1485.04</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="5">
         <f t="shared" si="0"/>
         <v>123942.98000000001</v>
       </c>
@@ -2692,7 +2693,7 @@
       <c r="I54">
         <v>-8944</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="5">
         <f t="shared" si="0"/>
         <v>132886.98000000001</v>
       </c>
@@ -2730,7 +2731,7 @@
       <c r="I55">
         <v>-18009.72</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="5">
         <f t="shared" si="0"/>
         <v>150896.70000000001</v>
       </c>
@@ -2768,7 +2769,7 @@
       <c r="I56">
         <v>-10793.83</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="5">
         <f t="shared" si="0"/>
         <v>161690.53</v>
       </c>
@@ -2806,7 +2807,7 @@
       <c r="I57">
         <v>-4325</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="5">
         <f t="shared" si="0"/>
         <v>166015.53</v>
       </c>
@@ -2821,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF39"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="BS1" sqref="BS1:BY4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2832,12 +2833,14 @@
     <col min="14" max="14" width="10.83203125" style="7"/>
     <col min="20" max="20" width="10.83203125" style="6"/>
     <col min="21" max="21" width="10.83203125" style="7"/>
+    <col min="24" max="24" width="10.83203125" style="5"/>
     <col min="28" max="28" width="10.83203125" style="7"/>
     <col min="35" max="35" width="10.83203125" style="7"/>
     <col min="42" max="42" width="10.83203125" style="7"/>
     <col min="45" max="45" width="10.83203125" style="9"/>
     <col min="49" max="49" width="10.83203125" style="7"/>
     <col min="52" max="52" width="10.83203125" style="9"/>
+    <col min="54" max="54" width="10.83203125" style="5"/>
     <col min="56" max="56" width="10.83203125" style="7"/>
     <col min="63" max="63" width="10.83203125" style="7"/>
     <col min="66" max="66" width="10.83203125" style="5"/>
@@ -2849,117 +2852,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="30" t="s">
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="27" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="27" t="s">
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="27" t="s">
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="27" t="str">
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="34" t="str">
         <f>"复星医药"</f>
         <v>复星医药</v>
       </c>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="27" t="str">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="34" t="str">
         <f>"安居宝"</f>
         <v>安居宝</v>
       </c>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="27" t="str">
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="34" t="str">
         <f>"慈星股份"</f>
         <v>慈星股份</v>
       </c>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="26"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="36"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -3031,7 +3034,7 @@
       <c r="W2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="6" t="s">
@@ -3361,7 +3364,7 @@
       <c r="BA3">
         <v>800</v>
       </c>
-      <c r="BB3" s="6">
+      <c r="BB3" s="8">
         <v>-20987.33</v>
       </c>
       <c r="BC3">
@@ -3610,7 +3613,7 @@
       <c r="BA4">
         <v>-800</v>
       </c>
-      <c r="BB4" s="6">
+      <c r="BB4" s="8">
         <v>20488.400000000001</v>
       </c>
       <c r="BC4">
@@ -3815,7 +3818,7 @@
       <c r="BA5">
         <v>600</v>
       </c>
-      <c r="BB5" s="6">
+      <c r="BB5" s="8">
         <v>-14906.04</v>
       </c>
       <c r="BC5">
@@ -3825,7 +3828,7 @@
       <c r="BX5" t="s">
         <v>38</v>
       </c>
-      <c r="BY5" s="33">
+      <c r="BY5" s="25">
         <f>BW4/(-BW3)-1</f>
         <v>0.37783092644676208</v>
       </c>
@@ -3888,7 +3891,7 @@
       <c r="BA6">
         <v>-600</v>
       </c>
-      <c r="BB6" s="6">
+      <c r="BB6" s="8">
         <v>17564.91</v>
       </c>
       <c r="BC6">
@@ -4075,10 +4078,10 @@
       </c>
     </row>
     <row r="13" spans="1:84" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="23">
         <f>SUM(12:12)</f>
         <v>-18829.800000000007</v>
@@ -4087,12 +4090,14 @@
       <c r="G13" s="18"/>
       <c r="N13" s="18"/>
       <c r="U13" s="18"/>
+      <c r="X13" s="15"/>
       <c r="AB13" s="18"/>
       <c r="AI13" s="18"/>
       <c r="AP13" s="18"/>
       <c r="AS13" s="24"/>
       <c r="AW13" s="18"/>
       <c r="AZ13" s="24"/>
+      <c r="BB13" s="15"/>
       <c r="BD13" s="18"/>
       <c r="BK13" s="18"/>
       <c r="BN13" s="15"/>
@@ -4104,83 +4109,83 @@
     </row>
     <row r="14" spans="1:84" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27" t="str">
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="34" t="str">
         <f>"东阿阿胶"</f>
         <v>东阿阿胶</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="27" t="s">
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="27" t="str">
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="34" t="str">
         <f>"康恩贝"</f>
         <v>康恩贝</v>
       </c>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="27" t="str">
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="34" t="str">
         <f>"和邦生物"</f>
         <v>和邦生物</v>
       </c>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="27" t="str">
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="34" t="str">
         <f>"福瑞股份"</f>
         <v>福瑞股份</v>
       </c>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="27" t="str">
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="34" t="str">
         <f>"博腾股份"</f>
         <v>博腾股份</v>
       </c>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="26"/>
+      <c r="AY15" s="35"/>
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="35"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="36"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -4252,7 +4257,7 @@
       <c r="W16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Y16" s="6" t="s">
@@ -4500,7 +4505,7 @@
       <c r="BA17">
         <v>1200</v>
       </c>
-      <c r="BB17" s="6">
+      <c r="BB17" s="8">
         <v>-22187.98</v>
       </c>
     </row>
@@ -4618,7 +4623,7 @@
       <c r="BA18">
         <v>500</v>
       </c>
-      <c r="BB18" s="6">
+      <c r="BB18" s="8">
         <v>-8830</v>
       </c>
     </row>
@@ -4673,7 +4678,7 @@
         <f t="shared" si="7"/>
         <v>买入</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="5">
         <v>17.878</v>
       </c>
       <c r="Y19">
@@ -4696,7 +4701,7 @@
         <f t="shared" si="7"/>
         <v>买入</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="5">
         <v>18</v>
       </c>
       <c r="Y20">
@@ -4721,7 +4726,7 @@
         <f t="shared" si="7"/>
         <v>买入</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="5">
         <v>17.98</v>
       </c>
       <c r="Y21">
@@ -4759,6 +4764,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AP1"/>
     <mergeCell ref="BE1:BK1"/>
     <mergeCell ref="BL1:BR1"/>
     <mergeCell ref="BS1:BY1"/>
@@ -4766,20 +4783,8 @@
     <mergeCell ref="AJ15:AP15"/>
     <mergeCell ref="AQ15:AW15"/>
     <mergeCell ref="AX15:BD15"/>
-    <mergeCell ref="V1:AB1"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AP1"/>
     <mergeCell ref="AQ1:AW1"/>
     <mergeCell ref="AX1:BD1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4790,41 +4795,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="str">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="str">
         <f>"安居宝"</f>
         <v>安居宝</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -4892,7 +4897,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="31">
         <v>20151225</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4912,7 +4917,7 @@
         <v>1000</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="39">
+      <c r="H3" s="31">
         <v>20160121</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -4932,12 +4937,12 @@
         <v>800</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="39" t="str">
+      <c r="O3" s="31" t="str">
         <f>"20160201"</f>
         <v>20160201</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:U4" si="0">"买入"</f>
+        <f t="shared" ref="P3" si="0">"买入"</f>
         <v>买入</v>
       </c>
       <c r="Q3" s="8">
@@ -4956,7 +4961,7 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="31">
         <v>20151228</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -4976,7 +4981,7 @@
         <v>3000</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="39">
+      <c r="H4" s="31">
         <v>20160125</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -4995,12 +5000,12 @@
         <f>M3+K4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="32">
         <f>SUM(L3:L4)</f>
         <v>-498.93000000000029</v>
       </c>
-      <c r="O4" s="39" t="str">
-        <f t="shared" ref="O4:U4" si="1">"20160204"</f>
+      <c r="O4" s="31" t="str">
+        <f t="shared" ref="O4" si="1">"20160204"</f>
         <v>20160204</v>
       </c>
       <c r="P4" s="6" t="str">
@@ -5019,13 +5024,13 @@
       <c r="T4" s="12">
         <v>0</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="33">
         <f>SUM(S3:S4)</f>
         <v>4309.6000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="31">
         <v>20151230</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5045,12 +5050,12 @@
         <v>3500</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="39" t="str">
+      <c r="H5" s="31" t="str">
         <f>"20160129"</f>
         <v>20160129</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:N6" si="3">"买入"</f>
+        <f t="shared" ref="I5" si="3">"买入"</f>
         <v>买入</v>
       </c>
       <c r="J5" s="13">
@@ -5077,7 +5082,7 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="31">
         <v>20151231</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5097,8 +5102,8 @@
         <v>4600</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="39" t="str">
-        <f t="shared" ref="H6:N6" si="5">"20160204"</f>
+      <c r="H6" s="31" t="str">
+        <f t="shared" ref="H6" si="5">"20160204"</f>
         <v>20160204</v>
       </c>
       <c r="I6" s="6" t="str">
@@ -5118,7 +5123,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="33">
         <f>SUM(L5:L6)</f>
         <v>2658.869999999999</v>
       </c>
@@ -5132,7 +5137,7 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+      <c r="A7" s="31">
         <v>20160115</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5154,7 +5159,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="39">
+      <c r="A8" s="31">
         <v>20160118</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -5176,7 +5181,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="39">
+      <c r="A9" s="31">
         <v>20160118</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5198,7 +5203,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="31">
         <v>20160118</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -5220,7 +5225,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="31">
         <v>20160118</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -5239,19 +5244,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="32">
         <f>SUM(E3:E11)</f>
         <v>-18082.740000000005</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5274,14 +5279,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="35"/>
+    <col min="3" max="4" width="10.83203125" style="27"/>
     <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="35"/>
-    <col min="9" max="9" width="12.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="27"/>
+    <col min="9" max="9" width="12.83203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="34">
+      <c r="A1" s="26">
         <v>42417</v>
       </c>
       <c r="B1">
@@ -5290,10 +5295,10 @@
       <c r="E1" s="5">
         <v>200000</v>
       </c>
-      <c r="H1" s="36">
+      <c r="H1" s="28">
         <v>42370</v>
       </c>
-      <c r="I1" s="37">
+      <c r="I1" s="29">
         <v>200000</v>
       </c>
     </row>
@@ -5301,24 +5306,24 @@
       <c r="B2">
         <v>2950</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="27">
         <f>B2/B1-1</f>
         <v>3.5087719298245723E-2</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="27">
         <v>0.05</v>
       </c>
       <c r="E2" s="5">
         <f>E1*(1+D2)</f>
         <v>210000</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="27">
         <v>0.2</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="28">
         <v>42522</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="29">
         <f>(1+G2)*I1</f>
         <v>240000</v>
       </c>
@@ -5327,24 +5332,24 @@
       <c r="B3">
         <v>3050</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="27">
         <f t="shared" ref="C3:C4" si="0">B3/B2-1</f>
         <v>3.3898305084745672E-2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="27">
         <v>0.06</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E5" si="1">E2*(1+D3)</f>
         <v>222600</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="27">
         <v>0.2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="28">
         <v>42675</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="29">
         <f t="shared" ref="I3:I25" si="2">(1+G3)*I2</f>
         <v>288000</v>
       </c>
@@ -5353,297 +5358,297 @@
       <c r="B4">
         <v>3150</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <f t="shared" si="0"/>
         <v>3.2786885245901676E-2</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
         <v>237069</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="27">
         <v>0.2</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="28">
         <v>42826</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="29">
         <f t="shared" si="2"/>
         <v>345600</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="26">
         <v>42480</v>
       </c>
       <c r="B5">
         <v>3200</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="27">
         <f>B5/B4-1</f>
         <v>1.5873015873015817E-2</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="27">
         <v>0.02</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>241810.38</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="27">
         <f>E5/E1-1</f>
         <v>0.20905189999999996</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="27">
         <v>0.2</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="28">
         <v>42979</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="29">
         <f t="shared" si="2"/>
         <v>414720</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="35">
+      <c r="G6" s="27">
         <v>0.2</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="28">
         <v>43132</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="29">
         <f t="shared" si="2"/>
         <v>497664</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G7" s="35">
+      <c r="G7" s="27">
         <v>0.2</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="28">
         <v>43282</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="29">
         <f>(1+G7)*I6</f>
         <v>597196.79999999993</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G8" s="35">
+      <c r="G8" s="27">
         <v>0.2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="28">
         <v>43435</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="29">
         <f t="shared" si="2"/>
         <v>716636.15999999992</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G9" s="35">
+      <c r="G9" s="27">
         <v>0.2</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="28">
         <v>43586</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="29">
         <f t="shared" si="2"/>
         <v>859963.39199999988</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" s="35">
+      <c r="G10" s="27">
         <v>0.2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="28">
         <v>43739</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>1031956.0703999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="35">
+      <c r="G11" s="27">
         <v>0.2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="28">
         <v>43891</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="29">
         <f t="shared" si="2"/>
         <v>1238347.2844799997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G12" s="35">
+      <c r="G12" s="27">
         <v>0.2</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="28">
         <v>44044</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="29">
         <f t="shared" si="2"/>
         <v>1486016.7413759995</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G13" s="35">
+      <c r="G13" s="27">
         <v>0.2</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="28">
         <v>44197</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="29">
         <f t="shared" si="2"/>
         <v>1783220.0896511993</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G14" s="35">
+      <c r="G14" s="27">
         <v>0.2</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="28">
         <v>44348</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="29">
         <f t="shared" si="2"/>
         <v>2139864.107581439</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G15" s="35">
+      <c r="G15" s="27">
         <v>0.2</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="28">
         <v>44501</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="29">
         <f t="shared" si="2"/>
         <v>2567836.9290977265</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G16" s="35">
+      <c r="G16" s="27">
         <v>0.2</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="28">
         <v>44652</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="29">
         <f t="shared" si="2"/>
         <v>3081404.3149172715</v>
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G17" s="35">
+      <c r="G17" s="27">
         <v>0.2</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="28">
         <v>44805</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="29">
         <f t="shared" si="2"/>
         <v>3697685.1779007255</v>
       </c>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G18" s="35">
+      <c r="G18" s="27">
         <v>0.2</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="28">
         <v>44958</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="29">
         <f t="shared" si="2"/>
         <v>4437222.2134808702</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G19" s="35">
+      <c r="G19" s="27">
         <v>0.2</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="28">
         <v>45108</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="29">
         <f t="shared" si="2"/>
         <v>5324666.6561770439</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G20" s="35">
+      <c r="G20" s="27">
         <v>0.2</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="28">
         <v>45261</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="29">
         <f t="shared" si="2"/>
         <v>6389599.9874124527</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G21" s="35">
+      <c r="G21" s="27">
         <v>0.2</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="28">
         <v>45413</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="29">
         <f t="shared" si="2"/>
         <v>7667519.9848949425</v>
       </c>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="35">
+      <c r="G22" s="27">
         <v>0.2</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="28">
         <v>45566</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="29">
         <f t="shared" si="2"/>
         <v>9201023.9818739314</v>
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G23" s="35">
+      <c r="G23" s="27">
         <v>0.2</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="28">
         <v>45717</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="30">
         <f t="shared" si="2"/>
         <v>11041228.778248718</v>
       </c>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G24" s="35">
+      <c r="G24" s="27">
         <v>0.2</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="28">
         <v>45870</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="29">
         <f t="shared" si="2"/>
         <v>13249474.533898462</v>
       </c>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G25" s="35">
+      <c r="G25" s="27">
         <v>0.2</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="28">
         <v>46023</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="29">
         <f t="shared" si="2"/>
         <v>15899369.440678153</v>
       </c>
